--- a/NFL Excel Sheets/Defense_SCORING.xlsx
+++ b/NFL Excel Sheets/Defense_SCORING.xlsx
@@ -98704,7 +98704,7 @@
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr">
@@ -98714,17 +98714,17 @@
       </c>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
@@ -98734,27 +98734,27 @@
       </c>
       <c r="I1447" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J1447" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K1447" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L1447" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M1447" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N1447" t="n">
@@ -98772,7 +98772,7 @@
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr">
@@ -98787,42 +98787,42 @@
       </c>
       <c r="F1448" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G1448" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H1448" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I1448" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J1448" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K1448" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L1448" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M1448" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="H1448" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I1448" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J1448" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="K1448" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="L1448" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M1448" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="N1448" t="n">
@@ -98840,7 +98840,7 @@
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr">
@@ -98850,12 +98850,12 @@
       </c>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G1449" t="inlineStr">
@@ -98875,12 +98875,12 @@
       </c>
       <c r="J1449" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K1449" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L1449" t="inlineStr">
@@ -98890,7 +98890,7 @@
       </c>
       <c r="M1449" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N1449" t="n">
@@ -98908,7 +98908,7 @@
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr">
@@ -98923,12 +98923,12 @@
       </c>
       <c r="F1450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G1450" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H1450" t="inlineStr">
@@ -98943,17 +98943,17 @@
       </c>
       <c r="J1450" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K1450" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L1450" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M1450" t="inlineStr">
@@ -98976,7 +98976,7 @@
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr">
@@ -98991,7 +98991,7 @@
       </c>
       <c r="F1451" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G1451" t="inlineStr">
@@ -99011,12 +99011,12 @@
       </c>
       <c r="J1451" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K1451" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="L1451" t="inlineStr">
@@ -99026,7 +99026,7 @@
       </c>
       <c r="M1451" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N1451" t="n">
@@ -99044,12 +99044,12 @@
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E1452" t="inlineStr">
@@ -99059,12 +99059,12 @@
       </c>
       <c r="F1452" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G1452" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1452" t="inlineStr">
@@ -99079,12 +99079,12 @@
       </c>
       <c r="J1452" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K1452" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L1452" t="inlineStr">
@@ -99112,7 +99112,7 @@
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>Washington Redskins</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr">
@@ -99127,12 +99127,12 @@
       </c>
       <c r="F1453" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G1453" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1453" t="inlineStr">
@@ -99147,12 +99147,12 @@
       </c>
       <c r="J1453" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K1453" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L1453" t="inlineStr">
@@ -99180,12 +99180,12 @@
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E1454" t="inlineStr">
@@ -99200,7 +99200,7 @@
       </c>
       <c r="G1454" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1454" t="inlineStr">
@@ -99215,12 +99215,12 @@
       </c>
       <c r="J1454" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K1454" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L1454" t="inlineStr">
@@ -99230,7 +99230,7 @@
       </c>
       <c r="M1454" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N1454" t="n">
@@ -99248,7 +99248,7 @@
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Oakland Raiders</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr">
@@ -99268,7 +99268,7 @@
       </c>
       <c r="G1455" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1455" t="inlineStr">
@@ -99283,12 +99283,12 @@
       </c>
       <c r="J1455" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K1455" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L1455" t="inlineStr">
@@ -99298,7 +99298,7 @@
       </c>
       <c r="M1455" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N1455" t="n">
@@ -99316,7 +99316,7 @@
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr">
@@ -99326,17 +99326,17 @@
       </c>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F1456" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G1456" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1456" t="inlineStr">
@@ -99351,22 +99351,22 @@
       </c>
       <c r="J1456" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K1456" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L1456" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M1456" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N1456" t="n">
@@ -99384,12 +99384,12 @@
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E1457" t="inlineStr">
@@ -99404,7 +99404,7 @@
       </c>
       <c r="G1457" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H1457" t="inlineStr">
@@ -99419,22 +99419,22 @@
       </c>
       <c r="J1457" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K1457" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L1457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M1457" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N1457" t="n">
@@ -99452,7 +99452,7 @@
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Washington Redskins</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr">
@@ -99467,7 +99467,7 @@
       </c>
       <c r="F1458" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G1458" t="inlineStr">
@@ -99487,12 +99487,12 @@
       </c>
       <c r="J1458" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K1458" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L1458" t="inlineStr">
@@ -99502,7 +99502,7 @@
       </c>
       <c r="M1458" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N1458" t="n">
@@ -99520,7 +99520,7 @@
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Oakland Raiders</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr">
@@ -99535,12 +99535,12 @@
       </c>
       <c r="F1459" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1459" t="inlineStr">
@@ -99555,22 +99555,22 @@
       </c>
       <c r="J1459" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="K1459" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L1459" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M1459" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N1459" t="n">
@@ -99588,7 +99588,7 @@
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr">
@@ -99623,22 +99623,22 @@
       </c>
       <c r="J1460" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K1460" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L1460" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M1460" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N1460" t="n">
@@ -99651,12 +99651,12 @@
       </c>
       <c r="B1461" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr">
@@ -99666,7 +99666,7 @@
       </c>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr">
@@ -99691,7 +99691,7 @@
       </c>
       <c r="J1461" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K1461" t="inlineStr">
@@ -99724,7 +99724,7 @@
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr">
@@ -99739,12 +99739,12 @@
       </c>
       <c r="F1462" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G1462" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1462" t="inlineStr">
@@ -99759,17 +99759,17 @@
       </c>
       <c r="J1462" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K1462" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L1462" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M1462" t="inlineStr">
@@ -99792,7 +99792,7 @@
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr">
@@ -99807,7 +99807,7 @@
       </c>
       <c r="F1463" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G1463" t="inlineStr">
@@ -99827,12 +99827,12 @@
       </c>
       <c r="J1463" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K1463" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L1463" t="inlineStr">
@@ -99855,7 +99855,7 @@
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
@@ -99895,12 +99895,12 @@
       </c>
       <c r="J1464" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K1464" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L1464" t="inlineStr">
@@ -99928,7 +99928,7 @@
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr">
@@ -99943,12 +99943,12 @@
       </c>
       <c r="F1465" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1465" t="inlineStr">
@@ -99963,12 +99963,12 @@
       </c>
       <c r="J1465" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K1465" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L1465" t="inlineStr">
@@ -99978,7 +99978,7 @@
       </c>
       <c r="M1465" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N1465" t="n">
@@ -99996,7 +99996,7 @@
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr">
@@ -100006,7 +100006,7 @@
       </c>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr">
@@ -100031,12 +100031,12 @@
       </c>
       <c r="J1466" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K1466" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L1466" t="inlineStr">
@@ -100046,7 +100046,7 @@
       </c>
       <c r="M1466" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N1466" t="n">
@@ -100059,12 +100059,12 @@
       </c>
       <c r="B1467" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr">
@@ -100084,7 +100084,7 @@
       </c>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H1467" t="inlineStr">
@@ -100099,12 +100099,12 @@
       </c>
       <c r="J1467" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K1467" t="inlineStr">
+        <is>
           <t>18</t>
-        </is>
-      </c>
-      <c r="K1467" t="inlineStr">
-        <is>
-          <t>14</t>
         </is>
       </c>
       <c r="L1467" t="inlineStr">
@@ -100132,12 +100132,12 @@
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E1468" t="inlineStr">
@@ -100167,17 +100167,17 @@
       </c>
       <c r="J1468" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K1468" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L1468" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M1468" t="inlineStr">
@@ -100200,7 +100200,7 @@
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr">
@@ -100210,7 +100210,7 @@
       </c>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr">
@@ -100235,22 +100235,22 @@
       </c>
       <c r="J1469" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K1469" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L1469" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M1469" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N1469" t="n">
@@ -100268,7 +100268,7 @@
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr">
@@ -100288,7 +100288,7 @@
       </c>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
@@ -100303,12 +100303,12 @@
       </c>
       <c r="J1470" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K1470" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L1470" t="inlineStr">
@@ -100318,7 +100318,7 @@
       </c>
       <c r="M1470" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N1470" t="n">
@@ -100336,7 +100336,7 @@
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr">
@@ -100371,12 +100371,12 @@
       </c>
       <c r="J1471" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K1471" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L1471" t="inlineStr">
@@ -100399,17 +100399,17 @@
       </c>
       <c r="B1472" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E1472" t="inlineStr">
@@ -100424,7 +100424,7 @@
       </c>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1472" t="inlineStr">
@@ -100439,12 +100439,12 @@
       </c>
       <c r="J1472" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K1472" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L1472" t="inlineStr">
@@ -100467,12 +100467,12 @@
       </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr">
@@ -100482,7 +100482,7 @@
       </c>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr">
@@ -100507,12 +100507,12 @@
       </c>
       <c r="J1473" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K1473" t="inlineStr">
+        <is>
           <t>16</t>
-        </is>
-      </c>
-      <c r="K1473" t="inlineStr">
-        <is>
-          <t>10</t>
         </is>
       </c>
       <c r="L1473" t="inlineStr">
@@ -100540,7 +100540,7 @@
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr">
@@ -100550,7 +100550,7 @@
       </c>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr">
@@ -100575,17 +100575,17 @@
       </c>
       <c r="J1474" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K1474" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
       <c r="L1474" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M1474" t="inlineStr">
@@ -100608,7 +100608,7 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr">
@@ -100643,22 +100643,22 @@
       </c>
       <c r="J1475" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K1475" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L1475" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M1475" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N1475" t="n">
@@ -100686,7 +100686,7 @@
       </c>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F1476" t="inlineStr">
@@ -100711,12 +100711,12 @@
       </c>
       <c r="J1476" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K1476" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L1476" t="inlineStr">
@@ -100764,7 +100764,7 @@
       </c>
       <c r="G1477" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H1477" t="inlineStr">
@@ -100779,12 +100779,12 @@
       </c>
       <c r="J1477" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K1477" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L1477" t="inlineStr">
@@ -100847,12 +100847,12 @@
       </c>
       <c r="J1478" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K1478" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L1478" t="inlineStr">
